--- a/analisis_python/ClusteringResult/cluster_kmeansk=0.xlsx
+++ b/analisis_python/ClusteringResult/cluster_kmeansk=0.xlsx
@@ -414,8 +414,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>16</v>
@@ -435,16 +437,22 @@
       <c r="G2" t="n">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -464,16 +472,22 @@
       <c r="G3" t="n">
         <v>18</v>
       </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-4669 v3 2.10 GHz (Intel Turbo Boost technology up to 2.90 GHz)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>11</v>
@@ -493,16 +507,22 @@
       <c r="G4" t="n">
         <v>28</v>
       </c>
-      <c r="H4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>10</v>
@@ -522,16 +542,22 @@
       <c r="G5" t="n">
         <v>28</v>
       </c>
-      <c r="H5" t="n">
-        <v>34</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>9</v>
@@ -551,16 +577,22 @@
       <c r="G6" t="n">
         <v>28</v>
       </c>
-      <c r="H6" t="n">
-        <v>34</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>8</v>
@@ -580,16 +612,22 @@
       <c r="G7" t="n">
         <v>28</v>
       </c>
-      <c r="H7" t="n">
-        <v>34</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -609,16 +647,22 @@
       <c r="G8" t="n">
         <v>28</v>
       </c>
-      <c r="H8" t="n">
-        <v>34</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -638,16 +682,22 @@
       <c r="G9" t="n">
         <v>28</v>
       </c>
-      <c r="H9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -667,16 +717,22 @@
       <c r="G10" t="n">
         <v>28</v>
       </c>
-      <c r="H10" t="n">
-        <v>34</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>6</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -696,16 +752,22 @@
       <c r="G11" t="n">
         <v>28</v>
       </c>
-      <c r="H11" t="n">
-        <v>33</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -725,16 +787,22 @@
       <c r="G12" t="n">
         <v>28</v>
       </c>
-      <c r="H12" t="n">
-        <v>33</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>6</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>10</v>
@@ -754,16 +822,22 @@
       <c r="G13" t="n">
         <v>28</v>
       </c>
-      <c r="H13" t="n">
-        <v>33</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>6</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>9</v>
@@ -783,16 +857,22 @@
       <c r="G14" t="n">
         <v>28</v>
       </c>
-      <c r="H14" t="n">
-        <v>33</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>8</v>
@@ -812,16 +892,22 @@
       <c r="G15" t="n">
         <v>28</v>
       </c>
-      <c r="H15" t="n">
-        <v>33</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -841,16 +927,22 @@
       <c r="G16" t="n">
         <v>28</v>
       </c>
-      <c r="H16" t="n">
-        <v>33</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -870,16 +962,22 @@
       <c r="G17" t="n">
         <v>28</v>
       </c>
-      <c r="H17" t="n">
-        <v>33</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>6</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>11</v>
@@ -899,16 +997,22 @@
       <c r="G18" t="n">
         <v>28</v>
       </c>
-      <c r="H18" t="n">
-        <v>35</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>6</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>10</v>
@@ -928,16 +1032,22 @@
       <c r="G19" t="n">
         <v>28</v>
       </c>
-      <c r="H19" t="n">
-        <v>35</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>6</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>9</v>
@@ -957,16 +1067,22 @@
       <c r="G20" t="n">
         <v>28</v>
       </c>
-      <c r="H20" t="n">
-        <v>35</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>6</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>8</v>
@@ -986,16 +1102,22 @@
       <c r="G21" t="n">
         <v>28</v>
       </c>
-      <c r="H21" t="n">
-        <v>35</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>6</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>7</v>
@@ -1015,16 +1137,22 @@
       <c r="G22" t="n">
         <v>28</v>
       </c>
-      <c r="H22" t="n">
-        <v>35</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>6</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -1044,16 +1172,22 @@
       <c r="G23" t="n">
         <v>28</v>
       </c>
-      <c r="H23" t="n">
-        <v>35</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>6</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>5</v>
@@ -1073,16 +1207,22 @@
       <c r="G24" t="n">
         <v>28</v>
       </c>
-      <c r="H24" t="n">
-        <v>35</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>6</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>12</v>
@@ -1102,16 +1242,22 @@
       <c r="G25" t="n">
         <v>28</v>
       </c>
-      <c r="H25" t="n">
-        <v>35</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -1131,16 +1277,22 @@
       <c r="G26" t="n">
         <v>28</v>
       </c>
-      <c r="H26" t="n">
-        <v>34</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>6</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>5</v>
@@ -1160,16 +1312,22 @@
       <c r="G27" t="n">
         <v>28</v>
       </c>
-      <c r="H27" t="n">
-        <v>34</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>4</v>
@@ -1189,16 +1347,22 @@
       <c r="G28" t="n">
         <v>28</v>
       </c>
-      <c r="H28" t="n">
-        <v>34</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>6</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -1218,16 +1382,22 @@
       <c r="G29" t="n">
         <v>28</v>
       </c>
-      <c r="H29" t="n">
-        <v>34</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>6</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>6</v>
@@ -1247,16 +1417,22 @@
       <c r="G30" t="n">
         <v>28</v>
       </c>
-      <c r="H30" t="n">
-        <v>33</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>6</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>5</v>
@@ -1276,16 +1452,22 @@
       <c r="G31" t="n">
         <v>28</v>
       </c>
-      <c r="H31" t="n">
-        <v>33</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>4</v>
@@ -1305,16 +1487,22 @@
       <c r="G32" t="n">
         <v>28</v>
       </c>
-      <c r="H32" t="n">
-        <v>33</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>3</v>
@@ -1334,16 +1522,22 @@
       <c r="G33" t="n">
         <v>28</v>
       </c>
-      <c r="H33" t="n">
-        <v>33</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>6</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>5</v>
@@ -1363,16 +1557,22 @@
       <c r="G34" t="n">
         <v>28</v>
       </c>
-      <c r="H34" t="n">
-        <v>35</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>6</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -1392,16 +1592,22 @@
       <c r="G35" t="n">
         <v>28</v>
       </c>
-      <c r="H35" t="n">
-        <v>35</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>6</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -1421,16 +1627,22 @@
       <c r="G36" t="n">
         <v>28</v>
       </c>
-      <c r="H36" t="n">
-        <v>35</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -1450,16 +1662,22 @@
       <c r="G37" t="n">
         <v>28</v>
       </c>
-      <c r="H37" t="n">
-        <v>35</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>8</v>
@@ -1479,16 +1697,22 @@
       <c r="G38" t="n">
         <v>16</v>
       </c>
-      <c r="H38" t="n">
-        <v>41</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2683 V4</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>10</v>
@@ -1508,16 +1732,22 @@
       <c r="G39" t="n">
         <v>16</v>
       </c>
-      <c r="H39" t="n">
-        <v>41</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2683 V4</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>9</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>14</v>
@@ -1537,16 +1767,22 @@
       <c r="G40" t="n">
         <v>28</v>
       </c>
-      <c r="H40" t="n">
-        <v>39</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>9</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>7</v>
@@ -1566,16 +1802,22 @@
       <c r="G41" t="n">
         <v>28</v>
       </c>
-      <c r="H41" t="n">
-        <v>25</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>9</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>7</v>
@@ -1595,16 +1837,22 @@
       <c r="G42" t="n">
         <v>28</v>
       </c>
-      <c r="H42" t="n">
-        <v>39</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>10</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>15</v>
@@ -1624,16 +1872,22 @@
       <c r="G43" t="n">
         <v>28</v>
       </c>
-      <c r="H43" t="n">
-        <v>35</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>10</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>16</v>
@@ -1653,16 +1907,22 @@
       <c r="G44" t="n">
         <v>28</v>
       </c>
-      <c r="H44" t="n">
-        <v>35</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>10</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>10</v>
@@ -1682,16 +1942,22 @@
       <c r="G45" t="n">
         <v>28</v>
       </c>
-      <c r="H45" t="n">
-        <v>35</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>10</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>11</v>
@@ -1711,16 +1977,22 @@
       <c r="G46" t="n">
         <v>28</v>
       </c>
-      <c r="H46" t="n">
-        <v>35</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>10</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>12</v>
@@ -1740,16 +2012,22 @@
       <c r="G47" t="n">
         <v>28</v>
       </c>
-      <c r="H47" t="n">
-        <v>35</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>10</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>13</v>
@@ -1769,16 +2047,22 @@
       <c r="G48" t="n">
         <v>28</v>
       </c>
-      <c r="H48" t="n">
-        <v>35</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>10</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>14</v>
@@ -1798,16 +2082,22 @@
       <c r="G49" t="n">
         <v>28</v>
       </c>
-      <c r="H49" t="n">
-        <v>35</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>10</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>8</v>
@@ -1827,16 +2117,22 @@
       <c r="G50" t="n">
         <v>28</v>
       </c>
-      <c r="H50" t="n">
-        <v>35</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>10</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>9</v>
@@ -1856,11 +2152,15 @@
       <c r="G51" t="n">
         <v>28</v>
       </c>
-      <c r="H51" t="n">
-        <v>35</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
   </sheetData>
